--- a/files/modelresults.xlsx
+++ b/files/modelresults.xlsx
@@ -124,7 +124,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -624,7 +624,7 @@
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -951,7 +951,7 @@
   <dimension ref="A1:CK16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CG1" sqref="CG1:CG1048576"/>
+      <selection activeCell="CH4" sqref="CH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +972,12 @@
     <col min="56" max="56" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13.85546875" style="2" customWidth="1"/>
     <col min="66" max="66" width="17" style="6" customWidth="1"/>
-    <col min="75" max="75" width="9.140625" style="2"/>
-    <col min="76" max="76" width="9.140625" style="6"/>
-    <col min="85" max="85" width="9.140625" style="2"/>
-    <col min="86" max="86" width="9.140625" style="6"/>
+    <col min="75" max="75" width="16.28515625" style="2" customWidth="1"/>
+    <col min="76" max="76" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.28515625" customWidth="1"/>
+    <col min="85" max="85" width="14.28515625" style="2" customWidth="1"/>
+    <col min="86" max="86" width="11.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
